--- a/daily_correlation_matrix.xlsx
+++ b/daily_correlation_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,11 @@
           <t>epu_trend_7_g365</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -665,6 +670,9 @@
       <c r="AC2" t="n">
         <v>0.6361252747093307</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.6598083800626083</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -756,6 +764,9 @@
       <c r="AC3" t="n">
         <v>0.03604426741135284</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.03855507726989929</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -847,6 +858,9 @@
       <c r="AC4" t="n">
         <v>0.08325915657074305</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.09098834123482977</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -938,6 +952,9 @@
       <c r="AC5" t="n">
         <v>0.2110464120749808</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.2721917020670482</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1029,6 +1046,9 @@
       <c r="AC6" t="n">
         <v>0.6148687503207697</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.6427562223372468</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1120,6 +1140,9 @@
       <c r="AC7" t="n">
         <v>0.04111326223707892</v>
       </c>
+      <c r="AD7" t="n">
+        <v>0.03903711501286077</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1211,6 +1234,9 @@
       <c r="AC8" t="n">
         <v>0.09827534710179892</v>
       </c>
+      <c r="AD8" t="n">
+        <v>0.1003068951111662</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1302,6 +1328,9 @@
       <c r="AC9" t="n">
         <v>0.2298966330721761</v>
       </c>
+      <c r="AD9" t="n">
+        <v>0.2915908172773961</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1393,6 +1422,9 @@
       <c r="AC10" t="n">
         <v>0.6290732034311218</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.6405190789620925</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1484,6 +1516,9 @@
       <c r="AC11" t="n">
         <v>0.3669607213452947</v>
       </c>
+      <c r="AD11" t="n">
+        <v>0.5059274036808117</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1575,6 +1610,9 @@
       <c r="AC12" t="n">
         <v>0.2267582019203465</v>
       </c>
+      <c r="AD12" t="n">
+        <v>0.3681956519369607</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1666,6 +1704,9 @@
       <c r="AC13" t="n">
         <v>0.2267582019203458</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0.3681956519369601</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1757,6 +1798,9 @@
       <c r="AC14" t="n">
         <v>0.3998416646504248</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.6952322696646893</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1848,6 +1892,9 @@
       <c r="AC15" t="n">
         <v>0.4735105557500045</v>
       </c>
+      <c r="AD15" t="n">
+        <v>0.8622756139338835</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1939,6 +1986,9 @@
       <c r="AC16" t="n">
         <v>0.5511305417402276</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.9999999999999997</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2030,6 +2080,9 @@
       <c r="AC17" t="n">
         <v>0.4383922208718116</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.6667196845982332</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2121,6 +2174,9 @@
       <c r="AC18" t="n">
         <v>0.5204328047198988</v>
       </c>
+      <c r="AD18" t="n">
+        <v>0.8347921341514342</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2212,6 +2268,9 @@
       <c r="AC19" t="n">
         <v>0.6024155146216988</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.9574847641471314</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2303,6 +2362,9 @@
       <c r="AC20" t="n">
         <v>0.2076709458931876</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.424684635474113</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2394,6 +2456,9 @@
       <c r="AC21" t="n">
         <v>0.2125982763770576</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4774941847388868</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2485,6 +2550,9 @@
       <c r="AC22" t="n">
         <v>0.2123272718707495</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.6061395598494945</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2576,6 +2644,9 @@
       <c r="AC23" t="n">
         <v>0.8335364288826898</v>
       </c>
+      <c r="AD23" t="n">
+        <v>0.6533270110373144</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2667,6 +2738,9 @@
       <c r="AC24" t="n">
         <v>0.868854839195666</v>
       </c>
+      <c r="AD24" t="n">
+        <v>0.6623913612688132</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2758,6 +2832,9 @@
       <c r="AC25" t="n">
         <v>0.8773416826399162</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.665915151005705</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2849,6 +2926,9 @@
       <c r="AC26" t="n">
         <v>0.3552575251916614</v>
       </c>
+      <c r="AD26" t="n">
+        <v>-0.03518729586791696</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2940,6 +3020,9 @@
       <c r="AC27" t="n">
         <v>0.3752751056685329</v>
       </c>
+      <c r="AD27" t="n">
+        <v>-0.02714300300722347</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3031,6 +3114,9 @@
       <c r="AC28" t="n">
         <v>0.4471974845057825</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.0008199904585063654</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3120,6 +3206,103 @@
         <v>0.4471974845057825</v>
       </c>
       <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.5511305417402268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6598083800626083</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03855507726989929</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09098834123482977</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2721917020670482</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6427562223372468</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03903711501286077</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1003068951111662</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2915908172773961</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6405190789620925</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5059274036808117</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3681956519369607</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3681956519369601</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6952322696646893</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8622756139338835</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6667196845982332</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.8347921341514342</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.9574847641471314</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.424684635474113</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.4774941847388868</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6061395598494945</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6533270110373144</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6623913612688132</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.665915151005705</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.03518729586791696</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.02714300300722347</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.0008199904585063654</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.5511305417402268</v>
+      </c>
+      <c r="AD30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/daily_correlation_matrix.xlsx
+++ b/daily_correlation_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,16 @@
           <t>sentiment</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>interbank</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>interbank_365</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -673,6 +683,12 @@
       <c r="AD2" t="n">
         <v>0.6598083800626083</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2871147844152516</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.3196211072325494</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -767,6 +783,12 @@
       <c r="AD3" t="n">
         <v>0.03855507726989929</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.01497383141210788</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.005310721511944589</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -861,6 +883,12 @@
       <c r="AD4" t="n">
         <v>0.09098834123482977</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.0501996633562192</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.1041648495953422</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -955,6 +983,12 @@
       <c r="AD5" t="n">
         <v>0.2721917020670482</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.1586622538399589</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.2601831311255649</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1049,6 +1083,12 @@
       <c r="AD6" t="n">
         <v>0.6427562223372468</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.2733044324571031</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.276095108477374</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1143,6 +1183,12 @@
       <c r="AD7" t="n">
         <v>0.03903711501286077</v>
       </c>
+      <c r="AE7" t="n">
+        <v>0.01944955410512312</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.003006738510455303</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1237,6 +1283,12 @@
       <c r="AD8" t="n">
         <v>0.1003068951111662</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.04644447429975264</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1087346144618241</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1331,6 +1383,12 @@
       <c r="AD9" t="n">
         <v>0.2915908172773961</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.1338387784805694</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.2441853491252262</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1425,6 +1483,12 @@
       <c r="AD10" t="n">
         <v>0.6405190789620925</v>
       </c>
+      <c r="AE10" t="n">
+        <v>-0.2626043181421075</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.2652210648370316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1519,6 +1583,12 @@
       <c r="AD11" t="n">
         <v>0.5059274036808117</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2570049083514916</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2423992890583433</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1613,6 +1683,12 @@
       <c r="AD12" t="n">
         <v>0.3681956519369607</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.06381093928983571</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.08447348200807082</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1707,6 +1783,12 @@
       <c r="AD13" t="n">
         <v>0.3681956519369601</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.06381093928983544</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.08447348200807042</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1801,6 +1883,12 @@
       <c r="AD14" t="n">
         <v>0.6952322696646893</v>
       </c>
+      <c r="AE14" t="n">
+        <v>-0.1154692237270969</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.1501264054274833</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1895,6 +1983,12 @@
       <c r="AD15" t="n">
         <v>0.8622756139338835</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.07365309940802274</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1610920841097825</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1989,6 +2083,12 @@
       <c r="AD16" t="n">
         <v>0.9999999999999997</v>
       </c>
+      <c r="AE16" t="n">
+        <v>-0.06070343183568534</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.1857809860805518</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2083,6 +2183,12 @@
       <c r="AD17" t="n">
         <v>0.6667196845982332</v>
       </c>
+      <c r="AE17" t="n">
+        <v>-0.1376799349405861</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.1946661264587279</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2177,6 +2283,12 @@
       <c r="AD18" t="n">
         <v>0.8347921341514342</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.08762335574364612</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.2103663295965484</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2271,6 +2383,12 @@
       <c r="AD19" t="n">
         <v>0.9574847641471314</v>
       </c>
+      <c r="AE19" t="n">
+        <v>-0.07399349728179125</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.2310607312199777</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2365,6 +2483,12 @@
       <c r="AD20" t="n">
         <v>0.424684635474113</v>
       </c>
+      <c r="AE20" t="n">
+        <v>-0.05770528201764086</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-0.02897153274730521</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2459,6 +2583,12 @@
       <c r="AD21" t="n">
         <v>0.4774941847388868</v>
       </c>
+      <c r="AE21" t="n">
+        <v>-0.01611363855504351</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-0.02518631385669686</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2553,6 +2683,12 @@
       <c r="AD22" t="n">
         <v>0.6061395598494945</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.02703254851617786</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.03093946658279127</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2647,6 +2783,12 @@
       <c r="AD23" t="n">
         <v>0.6533270110373144</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.2810703101277359</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.4226496037025778</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2741,6 +2883,12 @@
       <c r="AD24" t="n">
         <v>0.6623913612688132</v>
       </c>
+      <c r="AE24" t="n">
+        <v>-0.2778914834786976</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.4298157508491551</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2835,6 +2983,12 @@
       <c r="AD25" t="n">
         <v>0.665915151005705</v>
       </c>
+      <c r="AE25" t="n">
+        <v>-0.2761616012939598</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>-0.4303903973269033</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2929,6 +3083,12 @@
       <c r="AD26" t="n">
         <v>-0.03518729586791696</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.08911600918583518</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>-0.0786499941207547</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3023,6 +3183,12 @@
       <c r="AD27" t="n">
         <v>-0.02714300300722347</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.07615243356165301</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-0.09782567514333827</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3117,6 +3283,12 @@
       <c r="AD28" t="n">
         <v>0.0008199904585063654</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.02710235867052738</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-0.1683046282130734</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3211,6 +3383,12 @@
       <c r="AD29" t="n">
         <v>0.5511305417402268</v>
       </c>
+      <c r="AE29" t="n">
+        <v>-0.1724600770703373</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>-0.3991794416619434</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3303,6 +3481,212 @@
         <v>0.5511305417402268</v>
       </c>
       <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.060703431835685</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-0.1857809860805513</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>interbank</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2871147844152516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01497383141210788</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.0501996633562192</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1586622538399589</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.2733044324571031</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01944955410512312</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.04644447429975264</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.1338387784805694</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.2626043181421075</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.2570049083514916</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.06381093928983571</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.06381093928983544</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.1154692237270969</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.07365309940802274</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.06070343183568534</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.1376799349405861</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.08762335574364612</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.07399349728179125</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.05770528201764086</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.01611363855504351</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.02703254851617786</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.2810703101277359</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.2778914834786976</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.2761616012939598</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.08911600918583518</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.07615243356165301</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.02710235867052738</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.1724600770703373</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.060703431835685</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.660176173565973</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>interbank_365</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.3196211072325494</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.005310721511944589</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1041648495953422</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.2601831311255649</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.276095108477374</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.003006738510455303</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.1087346144618241</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.2441853491252262</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.2652210648370316</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.2423992890583433</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.08447348200807082</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.08447348200807042</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.1501264054274833</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.1610920841097825</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.1857809860805518</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.1946661264587279</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.2103663295965484</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.2310607312199777</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.02897153274730521</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.02518631385669686</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.03093946658279127</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-0.4226496037025778</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.4298157508491551</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.4303903973269033</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.0786499941207547</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.09782567514333827</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.1683046282130734</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.3991794416619434</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.1857809860805513</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.660176173565973</v>
+      </c>
+      <c r="AF32" t="n">
         <v>1</v>
       </c>
     </row>
